--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4304288-0B09-43A0-8D9D-7848011C75CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA31BFE-B78F-4108-A0D1-DACDF188E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA31BFE-B78F-4108-A0D1-DACDF188E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199C466E-E9B1-491D-8E7D-C257B0A3FB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="misc" sheetId="7" r:id="rId1"/>
@@ -422,10 +422,10 @@
     <t>$/GJ</t>
   </si>
   <si>
-    <t>~FI_T: USD10~FX~ACT_BND</t>
-  </si>
-  <si>
     <t>invcost</t>
+  </si>
+  <si>
+    <t>~FI_T: USD21~FX~ACT_BND</t>
   </si>
   <si>
     <t>process</t>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C1C47-C7B1-48B4-9602-2B825216B37E}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2012,9 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5417F31-D792-47CD-82F2-E942FCB1F74A}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -6524,7 +6522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12EA90E-43F0-4F26-A089-D51219939B11}">
   <dimension ref="B3:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -6622,7 +6620,7 @@
         <v>62</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O4" s="24" t="s">
         <v>94</v>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199C466E-E9B1-491D-8E7D-C257B0A3FB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC7CF8E-3947-40D8-A846-AEEC331D9F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC7CF8E-3947-40D8-A846-AEEC331D9F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD101F1D-7286-409D-8561-00E090EE8B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD101F1D-7286-409D-8561-00E090EE8B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675EE029-0805-4F57-B70E-3961CA84555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675EE029-0805-4F57-B70E-3961CA84555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E25C1-10C5-4F98-AFC5-CA7F475B6429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E25C1-10C5-4F98-AFC5-CA7F475B6429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C75FD-5CF5-40CB-976E-9095C852CCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C75FD-5CF5-40CB-976E-9095C852CCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2087E87-547E-4A04-BF35-8FE55AA60C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2087E87-547E-4A04-BF35-8FE55AA60C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1343AE2-C68A-4DE4-8B41-20DC1D40072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1343AE2-C68A-4DE4-8B41-20DC1D40072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C941485-300F-4825-87D6-ECC552D7F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C941485-300F-4825-87D6-ECC552D7F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC33785-FCC5-4A49-A9B2-E46D561DA521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC33785-FCC5-4A49-A9B2-E46D561DA521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A4F66-395C-4477-9D4F-6A2392774C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A4F66-395C-4477-9D4F-6A2392774C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484B464-6898-40D2-9238-37C50713A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484B464-6898-40D2-9238-37C50713A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3532F65C-690D-45B5-BB98-056B74FC0B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3532F65C-690D-45B5-BB98-056B74FC0B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE98AF5-43B1-400F-9790-D40D3625A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE98AF5-43B1-400F-9790-D40D3625A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B1E5D-25CF-4099-A391-BD2DFB0EB7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B1E5D-25CF-4099-A391-BD2DFB0EB7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D57D7F-FAB8-48A1-BB61-0A6C5D0F9E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D57D7F-FAB8-48A1-BB61-0A6C5D0F9E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E1302-554C-4D61-B50B-9F6CB49AFFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E1302-554C-4D61-B50B-9F6CB49AFFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82A20A-1095-42CA-A854-A99A149E699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82A20A-1095-42CA-A854-A99A149E699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F05237-1E71-4B28-8EB5-D3BF390A84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F05237-1E71-4B28-8EB5-D3BF390A84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437AF20-B2D3-4CA0-A194-3683DFC9680F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
